--- a/DynamicMarket.xlsx
+++ b/DynamicMarket.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Uni\WS21\kotlin\DynamicMarketKt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF95BBF6-1866-4607-92D6-3655F5040785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8055DDF4-28A2-4B7B-9C32-F6596F8B2846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="9" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="410">
   <si>
     <t>Shop name</t>
   </si>
@@ -837,12 +837,6 @@
     <t>Regions</t>
   </si>
   <si>
-    <t>Shops per Market</t>
-  </si>
-  <si>
-    <t>Can Generate Less?</t>
-  </si>
-  <si>
     <t>Lenesis</t>
   </si>
   <si>
@@ -1216,13 +1210,61 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Shops </t>
+  </si>
+  <si>
+    <t>Min Shops</t>
+  </si>
+  <si>
+    <t>Special Chance</t>
+  </si>
+  <si>
+    <t>brimstone;deathblade</t>
+  </si>
+  <si>
+    <t>tortoise steak;rabbit;dragon steak</t>
+  </si>
+  <si>
+    <t>angelfruit;rockfruit;ultraberries;grapes</t>
+  </si>
+  <si>
+    <t>timer;torture device;platinum pocket watch</t>
+  </si>
+  <si>
+    <t>cookies;nectarin;ambrosia</t>
+  </si>
+  <si>
+    <t>stolen necklace;golden ring;gemstone ladybug</t>
+  </si>
+  <si>
+    <t>large tent;fake dragons tooth;lesser potion</t>
+  </si>
+  <si>
+    <t>house eredus robes;silken robes;gold-lined robes;gemstone-encrusted robes;fur coat;mordan scarf;gothic dress;gothic suit;parasol</t>
+  </si>
+  <si>
+    <t>black wine;bluejack;cryston</t>
+  </si>
+  <si>
+    <t>Special Item Roll Incr.</t>
+  </si>
+  <si>
+    <t>Special Item Pool</t>
+  </si>
+  <si>
+    <t>longsword;masterwork dagger;masterwork longbow</t>
+  </si>
+  <si>
+    <t>eredus poison;featherdust</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1290,6 +1332,20 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1337,7 +1393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1374,6 +1430,12 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1589,15 +1651,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB504A6A-4F2B-4248-9DDF-3686FE1CACCE}">
-  <dimension ref="A1:AK4"/>
+  <dimension ref="A1:AK5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" style="26" customWidth="1"/>
     <col min="2" max="16384" width="11.42578125" style="16"/>
   </cols>
   <sheetData>
@@ -1693,21 +1755,21 @@
         <v>32</v>
       </c>
       <c r="AE1" s="16" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AF1" s="16" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AG1" s="16" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="B2" s="15">
-        <v>5</v>
+      <c r="A2" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="B2" s="16">
+        <v>8</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -1716,10 +1778,10 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="B3" s="15" t="b">
-        <v>0</v>
+        <v>394</v>
+      </c>
+      <c r="B3" s="15">
+        <v>8</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -1727,10 +1789,12 @@
       <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="B4" s="1"/>
+      <c r="A4" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="B4" s="15">
+        <v>2</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
       <c r="E4" s="16"/>
@@ -1767,6 +1831,12 @@
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
     </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1778,10 +1848,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AK1000"/>
+  <dimension ref="A1:AL1025"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1796,7 +1866,7 @@
     <col min="19" max="19" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1809,110 +1879,115 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>272</v>
-      </c>
       <c r="AJ1" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="AK1" s="2"/>
-    </row>
-    <row r="2" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>34</v>
@@ -1920,40 +1995,46 @@
       <c r="D2" s="4">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>35</v>
+      <c r="E2" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>398</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>35</v>
+        <v>284</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="Z2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AF2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AI2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>34</v>
@@ -1961,34 +2042,40 @@
       <c r="D3" s="4">
         <v>4</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="E3" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>399</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AH3" t="s">
-        <v>273</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ3" t="s">
+        <v>271</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>34</v>
@@ -1996,16 +2083,20 @@
       <c r="D4" s="4">
         <v>4</v>
       </c>
-      <c r="AI4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="28">
+        <v>0</v>
+      </c>
+      <c r="F4" s="30"/>
+      <c r="AK4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>34</v>
@@ -2013,16 +2104,20 @@
       <c r="D5" s="4">
         <v>3</v>
       </c>
-      <c r="AI5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="28">
+        <v>0</v>
+      </c>
+      <c r="F5" s="30"/>
+      <c r="AK5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>34</v>
@@ -2030,25 +2125,31 @@
       <c r="D6" s="4">
         <v>5</v>
       </c>
-      <c r="O6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>45</v>
+      <c r="E6" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>400</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AI6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>34</v>
@@ -2056,22 +2157,28 @@
       <c r="D7" s="4">
         <v>4</v>
       </c>
-      <c r="T7" s="7" t="s">
+      <c r="E7" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>401</v>
+      </c>
+      <c r="V7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AA7" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC7" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>34</v>
@@ -2079,31 +2186,37 @@
       <c r="D8" s="6">
         <v>4</v>
       </c>
-      <c r="U8" s="7" t="s">
+      <c r="E8" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="W8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="V8" s="7" t="s">
+      <c r="X8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="W8" s="7" t="s">
+      <c r="Y8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X8" s="7" t="s">
+      <c r="Z8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AA8" s="8" t="s">
+      <c r="AC8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AI8" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>34</v>
@@ -2111,28 +2224,34 @@
       <c r="D9" s="4">
         <v>4</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="E9" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>403</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="N9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="O9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="T9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AI9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>34</v>
@@ -2140,58 +2259,64 @@
       <c r="D10" s="4">
         <v>4</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="E10" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>404</v>
+      </c>
+      <c r="L10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="P10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="S10" s="4" t="s">
+      <c r="U10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="T10" s="4" t="s">
+      <c r="V10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="U10" s="7" t="s">
+      <c r="W10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="V10" s="7" t="s">
+      <c r="X10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="W10" s="7" t="s">
+      <c r="Y10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="X10" s="7" t="s">
+      <c r="Z10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AA10" s="8" t="s">
+      <c r="AC10" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="AD10" s="8" t="s">
+      <c r="AF10" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="AE10" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="AF10" s="8" t="s">
+      <c r="AG10" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="AH10" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AG10" s="4" t="s">
+      <c r="AI10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AI10" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>34</v>
@@ -2199,19 +2324,25 @@
       <c r="D11" s="4">
         <v>4</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="28">
+        <v>0.75</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AI11" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>34</v>
@@ -2219,16 +2350,22 @@
       <c r="D12" s="4">
         <v>4</v>
       </c>
-      <c r="AI12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="28">
+        <v>0.15</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>34</v>
@@ -2236,58 +2373,64 @@
       <c r="D13" s="7">
         <v>5</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="E13" s="28">
+        <v>0.66659999999999997</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>408</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="I13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="Q13" s="10" t="s">
+      <c r="S13" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="R13" s="7" t="s">
+      <c r="T13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="T13" s="7" t="s">
+      <c r="V13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="U13" s="7" t="s">
+      <c r="W13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="V13" s="7" t="s">
+      <c r="X13" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="W13" s="7" t="s">
+      <c r="Y13" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="Y13" s="7" t="s">
+      <c r="AA13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="Z13" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="AD13" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB13" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="AF13" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>34</v>
@@ -2295,25 +2438,31 @@
       <c r="D14" s="7">
         <v>5</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="E14" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="Y14" s="7" t="s">
+      <c r="AA14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="Z14" s="8" t="s">
+      <c r="AB14" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="AI14" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK14" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>84</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>34</v>
@@ -2321,30 +2470,32 @@
       <c r="D15" s="8">
         <v>4</v>
       </c>
-      <c r="AA15" s="8" t="s">
+      <c r="E15" s="28">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="AB15" s="8" t="s">
+      <c r="AD15" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="AC15" s="8" t="s">
+      <c r="AE15" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AD15" s="8"/>
-      <c r="AE15" s="8"/>
       <c r="AF15" s="8"/>
       <c r="AG15" s="8"/>
       <c r="AH15" s="8"/>
       <c r="AI15" s="8"/>
       <c r="AJ15" s="8"/>
       <c r="AK15" s="8"/>
-    </row>
-    <row r="16" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL15" s="8"/>
+    </row>
+    <row r="16" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>88</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>26</v>
@@ -2352,1014 +2503,3014 @@
       <c r="D16" s="8">
         <v>3</v>
       </c>
-      <c r="AI16" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="28">
+        <v>0</v>
+      </c>
+      <c r="F16" s="30"/>
+      <c r="AK16" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>89</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D17" s="8">
         <v>3</v>
       </c>
-      <c r="AH17" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="28">
+        <v>0.75</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>409</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>393</v>
+      </c>
+      <c r="F18" s="30"/>
+    </row>
+    <row r="19" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D44" s="30"/>
+    </row>
+    <row r="45" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D45" s="30"/>
+    </row>
+    <row r="46" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D46" s="30"/>
+    </row>
+    <row r="47" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D47" s="30"/>
+    </row>
+    <row r="48" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D48" s="30"/>
+    </row>
+    <row r="49" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D49" s="30"/>
+    </row>
+    <row r="50" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D50" s="30"/>
+    </row>
+    <row r="51" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D51" s="30"/>
+    </row>
+    <row r="52" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D52" s="30"/>
+    </row>
+    <row r="53" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D53" s="30"/>
+    </row>
+    <row r="54" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D54" s="30"/>
+    </row>
+    <row r="55" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D55" s="30"/>
+    </row>
+    <row r="56" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D56" s="30"/>
+    </row>
+    <row r="57" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D57" s="30"/>
+    </row>
+    <row r="58" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D58" s="30"/>
+    </row>
+    <row r="59" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D59" s="30"/>
+    </row>
+    <row r="60" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D60" s="30"/>
+    </row>
+    <row r="61" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D61" s="30"/>
+    </row>
+    <row r="62" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D62" s="30"/>
+    </row>
+    <row r="63" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D63" s="30"/>
+    </row>
+    <row r="64" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D64" s="30"/>
+    </row>
+    <row r="65" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D65" s="30"/>
+    </row>
+    <row r="66" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D66" s="30"/>
+    </row>
+    <row r="67" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D67" s="30"/>
+    </row>
+    <row r="68" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D68" s="30"/>
+    </row>
+    <row r="69" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D69" s="30"/>
+    </row>
+    <row r="70" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D70" s="30"/>
+    </row>
+    <row r="71" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D71" s="30"/>
+    </row>
+    <row r="72" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D72" s="30"/>
+    </row>
+    <row r="73" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D73" s="30"/>
+    </row>
+    <row r="74" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D74" s="30"/>
+    </row>
+    <row r="75" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D75" s="30"/>
+    </row>
+    <row r="76" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D76" s="30"/>
+    </row>
+    <row r="77" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D77" s="30"/>
+    </row>
+    <row r="78" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D78" s="30"/>
+    </row>
+    <row r="79" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D79" s="30"/>
+    </row>
+    <row r="80" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D80" s="30"/>
+    </row>
+    <row r="81" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D81" s="30"/>
+    </row>
+    <row r="82" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D82" s="30"/>
+    </row>
+    <row r="83" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D83" s="30"/>
+    </row>
+    <row r="84" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D84" s="30"/>
+    </row>
+    <row r="85" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D85" s="30"/>
+    </row>
+    <row r="86" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D86" s="30"/>
+    </row>
+    <row r="87" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D87" s="30"/>
+    </row>
+    <row r="88" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D88" s="30"/>
+    </row>
+    <row r="89" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D89" s="30"/>
+    </row>
+    <row r="90" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D90" s="30"/>
+    </row>
+    <row r="91" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D91" s="30"/>
+    </row>
+    <row r="92" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D92" s="30"/>
+    </row>
+    <row r="93" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D93" s="30"/>
+    </row>
+    <row r="94" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D94" s="30"/>
+    </row>
+    <row r="95" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D95" s="30"/>
+    </row>
+    <row r="96" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D96" s="30"/>
+    </row>
+    <row r="97" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D97" s="30"/>
+    </row>
+    <row r="98" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D98" s="30"/>
+    </row>
+    <row r="99" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D99" s="30"/>
+    </row>
+    <row r="100" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D100" s="30"/>
+    </row>
+    <row r="101" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D101" s="30"/>
+    </row>
+    <row r="102" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D102" s="30"/>
+    </row>
+    <row r="103" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D103" s="30"/>
+    </row>
+    <row r="104" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D104" s="30"/>
+    </row>
+    <row r="105" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D105" s="30"/>
+    </row>
+    <row r="106" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D106" s="30"/>
+    </row>
+    <row r="107" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D107" s="30"/>
+    </row>
+    <row r="108" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D108" s="30"/>
+    </row>
+    <row r="109" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D109" s="30"/>
+    </row>
+    <row r="110" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D110" s="30"/>
+    </row>
+    <row r="111" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D111" s="30"/>
+    </row>
+    <row r="112" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D112" s="30"/>
+    </row>
+    <row r="113" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D113" s="30"/>
+    </row>
+    <row r="114" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D114" s="30"/>
+    </row>
+    <row r="115" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D115" s="30"/>
+    </row>
+    <row r="116" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D116" s="30"/>
+    </row>
+    <row r="117" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D117" s="30"/>
+    </row>
+    <row r="118" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D118" s="30"/>
+    </row>
+    <row r="119" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D119" s="30"/>
+    </row>
+    <row r="120" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D120" s="30"/>
+    </row>
+    <row r="121" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D121" s="30"/>
+    </row>
+    <row r="122" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D122" s="30"/>
+    </row>
+    <row r="123" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D123" s="30"/>
+    </row>
+    <row r="124" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D124" s="30"/>
+    </row>
+    <row r="125" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D125" s="30"/>
+    </row>
+    <row r="126" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D126" s="30"/>
+    </row>
+    <row r="127" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D127" s="30"/>
+    </row>
+    <row r="128" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D128" s="30"/>
+    </row>
+    <row r="129" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D129" s="30"/>
+    </row>
+    <row r="130" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D130" s="30"/>
+    </row>
+    <row r="131" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D131" s="30"/>
+    </row>
+    <row r="132" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D132" s="30"/>
+    </row>
+    <row r="133" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D133" s="30"/>
+    </row>
+    <row r="134" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D134" s="30"/>
+    </row>
+    <row r="135" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D135" s="30"/>
+    </row>
+    <row r="136" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D136" s="30"/>
+    </row>
+    <row r="137" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D137" s="30"/>
+    </row>
+    <row r="138" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D138" s="30"/>
+    </row>
+    <row r="139" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D139" s="30"/>
+    </row>
+    <row r="140" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D140" s="30"/>
+    </row>
+    <row r="141" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D141" s="30"/>
+    </row>
+    <row r="142" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D142" s="30"/>
+    </row>
+    <row r="143" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D143" s="30"/>
+    </row>
+    <row r="144" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D144" s="30"/>
+    </row>
+    <row r="145" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D145" s="30"/>
+    </row>
+    <row r="146" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D146" s="30"/>
+    </row>
+    <row r="147" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D147" s="30"/>
+    </row>
+    <row r="148" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D148" s="30"/>
+    </row>
+    <row r="149" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D149" s="30"/>
+    </row>
+    <row r="150" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D150" s="30"/>
+    </row>
+    <row r="151" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D151" s="30"/>
+    </row>
+    <row r="152" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D152" s="30"/>
+    </row>
+    <row r="153" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D153" s="30"/>
+    </row>
+    <row r="154" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D154" s="30"/>
+    </row>
+    <row r="155" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D155" s="30"/>
+    </row>
+    <row r="156" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D156" s="30"/>
+    </row>
+    <row r="157" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D157" s="30"/>
+    </row>
+    <row r="158" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D158" s="30"/>
+    </row>
+    <row r="159" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D159" s="30"/>
+    </row>
+    <row r="160" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D160" s="30"/>
+    </row>
+    <row r="161" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D161" s="30"/>
+    </row>
+    <row r="162" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D162" s="30"/>
+    </row>
+    <row r="163" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D163" s="30"/>
+    </row>
+    <row r="164" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D164" s="30"/>
+    </row>
+    <row r="165" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D165" s="30"/>
+    </row>
+    <row r="166" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D166" s="30"/>
+    </row>
+    <row r="167" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D167" s="30"/>
+    </row>
+    <row r="168" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D168" s="30"/>
+    </row>
+    <row r="169" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D169" s="30"/>
+    </row>
+    <row r="170" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D170" s="30"/>
+    </row>
+    <row r="171" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D171" s="30"/>
+    </row>
+    <row r="172" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D172" s="30"/>
+    </row>
+    <row r="173" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D173" s="30"/>
+    </row>
+    <row r="174" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D174" s="30"/>
+    </row>
+    <row r="175" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D175" s="30"/>
+    </row>
+    <row r="176" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D176" s="30"/>
+    </row>
+    <row r="177" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D177" s="30"/>
+    </row>
+    <row r="178" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D178" s="30"/>
+    </row>
+    <row r="179" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D179" s="30"/>
+    </row>
+    <row r="180" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D180" s="30"/>
+    </row>
+    <row r="181" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D181" s="30"/>
+    </row>
+    <row r="182" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D182" s="30"/>
+    </row>
+    <row r="183" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D183" s="30"/>
+    </row>
+    <row r="184" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D184" s="30"/>
+    </row>
+    <row r="185" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D185" s="30"/>
+    </row>
+    <row r="186" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D186" s="30"/>
+    </row>
+    <row r="187" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D187" s="30"/>
+    </row>
+    <row r="188" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D188" s="30"/>
+    </row>
+    <row r="189" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D189" s="30"/>
+    </row>
+    <row r="190" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D190" s="30"/>
+    </row>
+    <row r="191" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D191" s="30"/>
+    </row>
+    <row r="192" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D192" s="30"/>
+    </row>
+    <row r="193" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D193" s="30"/>
+    </row>
+    <row r="194" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D194" s="30"/>
+    </row>
+    <row r="195" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D195" s="30"/>
+    </row>
+    <row r="196" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D196" s="30"/>
+    </row>
+    <row r="197" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D197" s="30"/>
+    </row>
+    <row r="198" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D198" s="30"/>
+    </row>
+    <row r="199" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D199" s="30"/>
+    </row>
+    <row r="200" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D200" s="30"/>
+    </row>
+    <row r="201" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D201" s="30"/>
+    </row>
+    <row r="202" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D202" s="30"/>
+    </row>
+    <row r="203" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D203" s="30"/>
+    </row>
+    <row r="204" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D204" s="30"/>
+    </row>
+    <row r="205" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D205" s="30"/>
+    </row>
+    <row r="206" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D206" s="30"/>
+    </row>
+    <row r="207" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D207" s="30"/>
+    </row>
+    <row r="208" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D208" s="30"/>
+    </row>
+    <row r="209" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D209" s="30"/>
+    </row>
+    <row r="210" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D210" s="30"/>
+    </row>
+    <row r="211" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D211" s="30"/>
+    </row>
+    <row r="212" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D212" s="30"/>
+    </row>
+    <row r="213" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D213" s="30"/>
+    </row>
+    <row r="214" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D214" s="30"/>
+    </row>
+    <row r="215" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D215" s="30"/>
+    </row>
+    <row r="216" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D216" s="30"/>
+    </row>
+    <row r="217" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D217" s="30"/>
+    </row>
+    <row r="218" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D218" s="30"/>
+    </row>
+    <row r="219" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D219" s="30"/>
+    </row>
+    <row r="220" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D220" s="30"/>
+    </row>
+    <row r="221" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D221" s="30"/>
+    </row>
+    <row r="222" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D222" s="30"/>
+    </row>
+    <row r="223" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D223" s="30"/>
+    </row>
+    <row r="224" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D224" s="30"/>
+    </row>
+    <row r="225" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D225" s="30"/>
+    </row>
+    <row r="226" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D226" s="30"/>
+    </row>
+    <row r="227" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D227" s="30"/>
+    </row>
+    <row r="228" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D228" s="30"/>
+    </row>
+    <row r="229" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D229" s="30"/>
+    </row>
+    <row r="230" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D230" s="30"/>
+    </row>
+    <row r="231" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D231" s="30"/>
+    </row>
+    <row r="232" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D232" s="30"/>
+    </row>
+    <row r="233" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D233" s="30"/>
+    </row>
+    <row r="234" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D234" s="30"/>
+    </row>
+    <row r="235" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D235" s="30"/>
+    </row>
+    <row r="236" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D236" s="30"/>
+    </row>
+    <row r="237" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D237" s="30"/>
+    </row>
+    <row r="238" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D238" s="30"/>
+    </row>
+    <row r="239" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D239" s="30"/>
+    </row>
+    <row r="240" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D240" s="30"/>
+    </row>
+    <row r="241" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D241" s="30"/>
+    </row>
+    <row r="242" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D242" s="30"/>
+    </row>
+    <row r="243" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D243" s="30"/>
+    </row>
+    <row r="244" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D244" s="30"/>
+    </row>
+    <row r="245" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D245" s="30"/>
+    </row>
+    <row r="246" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D246" s="30"/>
+    </row>
+    <row r="247" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D247" s="30"/>
+    </row>
+    <row r="248" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D248" s="30"/>
+    </row>
+    <row r="249" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D249" s="30"/>
+    </row>
+    <row r="250" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D250" s="30"/>
+    </row>
+    <row r="251" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D251" s="30"/>
+    </row>
+    <row r="252" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D252" s="30"/>
+    </row>
+    <row r="253" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D253" s="30"/>
+    </row>
+    <row r="254" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D254" s="30"/>
+    </row>
+    <row r="255" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D255" s="30"/>
+    </row>
+    <row r="256" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D256" s="30"/>
+    </row>
+    <row r="257" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D257" s="30"/>
+    </row>
+    <row r="258" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D258" s="30"/>
+    </row>
+    <row r="259" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D259" s="30"/>
+    </row>
+    <row r="260" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D260" s="30"/>
+    </row>
+    <row r="261" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D261" s="30"/>
+    </row>
+    <row r="262" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D262" s="30"/>
+    </row>
+    <row r="263" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D263" s="30"/>
+    </row>
+    <row r="264" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D264" s="30"/>
+    </row>
+    <row r="265" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D265" s="30"/>
+    </row>
+    <row r="266" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D266" s="30"/>
+    </row>
+    <row r="267" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D267" s="30"/>
+    </row>
+    <row r="268" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D268" s="30"/>
+    </row>
+    <row r="269" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D269" s="30"/>
+    </row>
+    <row r="270" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D270" s="30"/>
+    </row>
+    <row r="271" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D271" s="30"/>
+    </row>
+    <row r="272" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D272" s="30"/>
+    </row>
+    <row r="273" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D273" s="30"/>
+    </row>
+    <row r="274" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D274" s="30"/>
+    </row>
+    <row r="275" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D275" s="30"/>
+    </row>
+    <row r="276" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D276" s="30"/>
+    </row>
+    <row r="277" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D277" s="30"/>
+    </row>
+    <row r="278" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D278" s="30"/>
+    </row>
+    <row r="279" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D279" s="30"/>
+    </row>
+    <row r="280" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D280" s="30"/>
+    </row>
+    <row r="281" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D281" s="30"/>
+    </row>
+    <row r="282" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D282" s="30"/>
+    </row>
+    <row r="283" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D283" s="30"/>
+    </row>
+    <row r="284" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D284" s="30"/>
+    </row>
+    <row r="285" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D285" s="30"/>
+    </row>
+    <row r="286" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D286" s="30"/>
+    </row>
+    <row r="287" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D287" s="30"/>
+    </row>
+    <row r="288" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D288" s="30"/>
+    </row>
+    <row r="289" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D289" s="30"/>
+    </row>
+    <row r="290" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D290" s="30"/>
+    </row>
+    <row r="291" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D291" s="30"/>
+    </row>
+    <row r="292" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D292" s="30"/>
+    </row>
+    <row r="293" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D293" s="30"/>
+    </row>
+    <row r="294" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D294" s="30"/>
+    </row>
+    <row r="295" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D295" s="30"/>
+    </row>
+    <row r="296" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D296" s="30"/>
+    </row>
+    <row r="297" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D297" s="30"/>
+    </row>
+    <row r="298" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D298" s="30"/>
+    </row>
+    <row r="299" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D299" s="30"/>
+    </row>
+    <row r="300" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D300" s="30"/>
+    </row>
+    <row r="301" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D301" s="30"/>
+    </row>
+    <row r="302" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D302" s="30"/>
+    </row>
+    <row r="303" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D303" s="30"/>
+    </row>
+    <row r="304" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D304" s="30"/>
+    </row>
+    <row r="305" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D305" s="30"/>
+    </row>
+    <row r="306" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D306" s="30"/>
+    </row>
+    <row r="307" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D307" s="30"/>
+    </row>
+    <row r="308" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D308" s="30"/>
+    </row>
+    <row r="309" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D309" s="30"/>
+    </row>
+    <row r="310" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D310" s="30"/>
+    </row>
+    <row r="311" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D311" s="30"/>
+    </row>
+    <row r="312" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D312" s="30"/>
+    </row>
+    <row r="313" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D313" s="30"/>
+    </row>
+    <row r="314" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D314" s="30"/>
+    </row>
+    <row r="315" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D315" s="30"/>
+    </row>
+    <row r="316" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D316" s="30"/>
+    </row>
+    <row r="317" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D317" s="30"/>
+    </row>
+    <row r="318" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D318" s="30"/>
+    </row>
+    <row r="319" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D319" s="30"/>
+    </row>
+    <row r="320" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D320" s="30"/>
+    </row>
+    <row r="321" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D321" s="30"/>
+    </row>
+    <row r="322" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D322" s="30"/>
+    </row>
+    <row r="323" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D323" s="30"/>
+    </row>
+    <row r="324" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D324" s="30"/>
+    </row>
+    <row r="325" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D325" s="30"/>
+    </row>
+    <row r="326" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D326" s="30"/>
+    </row>
+    <row r="327" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D327" s="30"/>
+    </row>
+    <row r="328" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D328" s="30"/>
+    </row>
+    <row r="329" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D329" s="30"/>
+    </row>
+    <row r="330" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D330" s="30"/>
+    </row>
+    <row r="331" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D331" s="30"/>
+    </row>
+    <row r="332" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D332" s="30"/>
+    </row>
+    <row r="333" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D333" s="30"/>
+    </row>
+    <row r="334" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D334" s="30"/>
+    </row>
+    <row r="335" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D335" s="30"/>
+    </row>
+    <row r="336" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D336" s="30"/>
+    </row>
+    <row r="337" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D337" s="30"/>
+    </row>
+    <row r="338" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D338" s="30"/>
+    </row>
+    <row r="339" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D339" s="30"/>
+    </row>
+    <row r="340" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D340" s="30"/>
+    </row>
+    <row r="341" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D341" s="30"/>
+    </row>
+    <row r="342" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D342" s="30"/>
+    </row>
+    <row r="343" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D343" s="30"/>
+    </row>
+    <row r="344" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D344" s="30"/>
+    </row>
+    <row r="345" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D345" s="30"/>
+    </row>
+    <row r="346" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D346" s="30"/>
+    </row>
+    <row r="347" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D347" s="30"/>
+    </row>
+    <row r="348" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D348" s="30"/>
+    </row>
+    <row r="349" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D349" s="30"/>
+    </row>
+    <row r="350" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D350" s="30"/>
+    </row>
+    <row r="351" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D351" s="30"/>
+    </row>
+    <row r="352" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D352" s="30"/>
+    </row>
+    <row r="353" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D353" s="30"/>
+    </row>
+    <row r="354" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D354" s="30"/>
+    </row>
+    <row r="355" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D355" s="30"/>
+    </row>
+    <row r="356" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D356" s="30"/>
+    </row>
+    <row r="357" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D357" s="30"/>
+    </row>
+    <row r="358" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D358" s="30"/>
+    </row>
+    <row r="359" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D359" s="30"/>
+    </row>
+    <row r="360" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D360" s="30"/>
+    </row>
+    <row r="361" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D361" s="30"/>
+    </row>
+    <row r="362" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D362" s="30"/>
+    </row>
+    <row r="363" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D363" s="30"/>
+    </row>
+    <row r="364" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D364" s="30"/>
+    </row>
+    <row r="365" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D365" s="30"/>
+    </row>
+    <row r="366" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D366" s="30"/>
+    </row>
+    <row r="367" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D367" s="30"/>
+    </row>
+    <row r="368" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D368" s="30"/>
+    </row>
+    <row r="369" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D369" s="30"/>
+    </row>
+    <row r="370" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D370" s="30"/>
+    </row>
+    <row r="371" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D371" s="30"/>
+    </row>
+    <row r="372" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D372" s="30"/>
+    </row>
+    <row r="373" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D373" s="30"/>
+    </row>
+    <row r="374" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D374" s="30"/>
+    </row>
+    <row r="375" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D375" s="30"/>
+    </row>
+    <row r="376" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D376" s="30"/>
+    </row>
+    <row r="377" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D377" s="30"/>
+    </row>
+    <row r="378" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D378" s="30"/>
+    </row>
+    <row r="379" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D379" s="30"/>
+    </row>
+    <row r="380" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D380" s="30"/>
+    </row>
+    <row r="381" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D381" s="30"/>
+    </row>
+    <row r="382" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D382" s="30"/>
+    </row>
+    <row r="383" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D383" s="30"/>
+    </row>
+    <row r="384" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D384" s="30"/>
+    </row>
+    <row r="385" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D385" s="30"/>
+    </row>
+    <row r="386" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D386" s="30"/>
+    </row>
+    <row r="387" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D387" s="30"/>
+    </row>
+    <row r="388" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D388" s="30"/>
+    </row>
+    <row r="389" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D389" s="30"/>
+    </row>
+    <row r="390" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D390" s="30"/>
+    </row>
+    <row r="391" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D391" s="30"/>
+    </row>
+    <row r="392" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D392" s="30"/>
+    </row>
+    <row r="393" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D393" s="30"/>
+    </row>
+    <row r="394" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D394" s="30"/>
+    </row>
+    <row r="395" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D395" s="30"/>
+    </row>
+    <row r="396" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D396" s="30"/>
+    </row>
+    <row r="397" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D397" s="30"/>
+    </row>
+    <row r="398" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D398" s="30"/>
+    </row>
+    <row r="399" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D399" s="30"/>
+    </row>
+    <row r="400" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D400" s="30"/>
+    </row>
+    <row r="401" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D401" s="30"/>
+    </row>
+    <row r="402" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D402" s="30"/>
+    </row>
+    <row r="403" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D403" s="30"/>
+    </row>
+    <row r="404" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D404" s="30"/>
+    </row>
+    <row r="405" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D405" s="30"/>
+    </row>
+    <row r="406" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D406" s="30"/>
+    </row>
+    <row r="407" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D407" s="30"/>
+    </row>
+    <row r="408" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D408" s="30"/>
+    </row>
+    <row r="409" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D409" s="30"/>
+    </row>
+    <row r="410" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D410" s="30"/>
+    </row>
+    <row r="411" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D411" s="30"/>
+    </row>
+    <row r="412" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D412" s="30"/>
+    </row>
+    <row r="413" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D413" s="30"/>
+    </row>
+    <row r="414" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D414" s="30"/>
+    </row>
+    <row r="415" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D415" s="30"/>
+    </row>
+    <row r="416" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D416" s="30"/>
+    </row>
+    <row r="417" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D417" s="30"/>
+    </row>
+    <row r="418" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D418" s="30"/>
+    </row>
+    <row r="419" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D419" s="30"/>
+    </row>
+    <row r="420" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D420" s="30"/>
+    </row>
+    <row r="421" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D421" s="30"/>
+    </row>
+    <row r="422" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D422" s="30"/>
+    </row>
+    <row r="423" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D423" s="30"/>
+    </row>
+    <row r="424" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D424" s="30"/>
+    </row>
+    <row r="425" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D425" s="30"/>
+    </row>
+    <row r="426" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D426" s="30"/>
+    </row>
+    <row r="427" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D427" s="30"/>
+    </row>
+    <row r="428" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D428" s="30"/>
+    </row>
+    <row r="429" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D429" s="30"/>
+    </row>
+    <row r="430" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D430" s="30"/>
+    </row>
+    <row r="431" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D431" s="30"/>
+    </row>
+    <row r="432" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D432" s="30"/>
+    </row>
+    <row r="433" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D433" s="30"/>
+    </row>
+    <row r="434" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D434" s="30"/>
+    </row>
+    <row r="435" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D435" s="30"/>
+    </row>
+    <row r="436" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D436" s="30"/>
+    </row>
+    <row r="437" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D437" s="30"/>
+    </row>
+    <row r="438" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D438" s="30"/>
+    </row>
+    <row r="439" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D439" s="30"/>
+    </row>
+    <row r="440" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D440" s="30"/>
+    </row>
+    <row r="441" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D441" s="30"/>
+    </row>
+    <row r="442" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D442" s="30"/>
+    </row>
+    <row r="443" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D443" s="30"/>
+    </row>
+    <row r="444" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D444" s="30"/>
+    </row>
+    <row r="445" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D445" s="30"/>
+    </row>
+    <row r="446" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D446" s="30"/>
+    </row>
+    <row r="447" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D447" s="30"/>
+    </row>
+    <row r="448" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D448" s="30"/>
+    </row>
+    <row r="449" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D449" s="30"/>
+    </row>
+    <row r="450" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D450" s="30"/>
+    </row>
+    <row r="451" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D451" s="30"/>
+    </row>
+    <row r="452" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D452" s="30"/>
+    </row>
+    <row r="453" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D453" s="30"/>
+    </row>
+    <row r="454" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D454" s="30"/>
+    </row>
+    <row r="455" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D455" s="30"/>
+    </row>
+    <row r="456" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D456" s="30"/>
+    </row>
+    <row r="457" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D457" s="30"/>
+    </row>
+    <row r="458" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D458" s="30"/>
+    </row>
+    <row r="459" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D459" s="30"/>
+    </row>
+    <row r="460" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D460" s="30"/>
+    </row>
+    <row r="461" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D461" s="30"/>
+    </row>
+    <row r="462" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D462" s="30"/>
+    </row>
+    <row r="463" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D463" s="30"/>
+    </row>
+    <row r="464" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D464" s="30"/>
+    </row>
+    <row r="465" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D465" s="30"/>
+    </row>
+    <row r="466" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D466" s="30"/>
+    </row>
+    <row r="467" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D467" s="30"/>
+    </row>
+    <row r="468" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D468" s="30"/>
+    </row>
+    <row r="469" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D469" s="30"/>
+    </row>
+    <row r="470" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D470" s="30"/>
+    </row>
+    <row r="471" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D471" s="30"/>
+    </row>
+    <row r="472" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D472" s="30"/>
+    </row>
+    <row r="473" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D473" s="30"/>
+    </row>
+    <row r="474" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D474" s="30"/>
+    </row>
+    <row r="475" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D475" s="30"/>
+    </row>
+    <row r="476" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D476" s="30"/>
+    </row>
+    <row r="477" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D477" s="30"/>
+    </row>
+    <row r="478" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D478" s="30"/>
+    </row>
+    <row r="479" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D479" s="30"/>
+    </row>
+    <row r="480" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D480" s="30"/>
+    </row>
+    <row r="481" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D481" s="30"/>
+    </row>
+    <row r="482" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D482" s="30"/>
+    </row>
+    <row r="483" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D483" s="30"/>
+    </row>
+    <row r="484" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D484" s="30"/>
+    </row>
+    <row r="485" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D485" s="30"/>
+    </row>
+    <row r="486" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D486" s="30"/>
+    </row>
+    <row r="487" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D487" s="30"/>
+    </row>
+    <row r="488" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D488" s="30"/>
+    </row>
+    <row r="489" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D489" s="30"/>
+    </row>
+    <row r="490" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D490" s="30"/>
+    </row>
+    <row r="491" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D491" s="30"/>
+    </row>
+    <row r="492" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D492" s="30"/>
+    </row>
+    <row r="493" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D493" s="30"/>
+    </row>
+    <row r="494" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D494" s="30"/>
+    </row>
+    <row r="495" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D495" s="30"/>
+    </row>
+    <row r="496" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D496" s="30"/>
+    </row>
+    <row r="497" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D497" s="30"/>
+    </row>
+    <row r="498" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D498" s="30"/>
+    </row>
+    <row r="499" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D499" s="30"/>
+    </row>
+    <row r="500" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D500" s="30"/>
+    </row>
+    <row r="501" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D501" s="30"/>
+    </row>
+    <row r="502" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D502" s="30"/>
+    </row>
+    <row r="503" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D503" s="30"/>
+    </row>
+    <row r="504" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D504" s="30"/>
+    </row>
+    <row r="505" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D505" s="30"/>
+    </row>
+    <row r="506" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D506" s="30"/>
+    </row>
+    <row r="507" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D507" s="30"/>
+    </row>
+    <row r="508" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D508" s="30"/>
+    </row>
+    <row r="509" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D509" s="30"/>
+    </row>
+    <row r="510" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D510" s="30"/>
+    </row>
+    <row r="511" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D511" s="30"/>
+    </row>
+    <row r="512" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D512" s="30"/>
+    </row>
+    <row r="513" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D513" s="30"/>
+    </row>
+    <row r="514" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D514" s="30"/>
+    </row>
+    <row r="515" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D515" s="30"/>
+    </row>
+    <row r="516" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D516" s="30"/>
+    </row>
+    <row r="517" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D517" s="30"/>
+    </row>
+    <row r="518" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D518" s="30"/>
+    </row>
+    <row r="519" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D519" s="30"/>
+    </row>
+    <row r="520" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D520" s="30"/>
+    </row>
+    <row r="521" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D521" s="30"/>
+    </row>
+    <row r="522" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D522" s="30"/>
+    </row>
+    <row r="523" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D523" s="30"/>
+    </row>
+    <row r="524" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D524" s="30"/>
+    </row>
+    <row r="525" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D525" s="30"/>
+    </row>
+    <row r="526" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D526" s="30"/>
+    </row>
+    <row r="527" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D527" s="30"/>
+    </row>
+    <row r="528" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D528" s="30"/>
+    </row>
+    <row r="529" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D529" s="30"/>
+    </row>
+    <row r="530" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D530" s="30"/>
+    </row>
+    <row r="531" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D531" s="30"/>
+    </row>
+    <row r="532" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D532" s="30"/>
+    </row>
+    <row r="533" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D533" s="30"/>
+    </row>
+    <row r="534" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D534" s="30"/>
+    </row>
+    <row r="535" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D535" s="30"/>
+    </row>
+    <row r="536" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D536" s="30"/>
+    </row>
+    <row r="537" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D537" s="30"/>
+    </row>
+    <row r="538" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D538" s="30"/>
+    </row>
+    <row r="539" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D539" s="30"/>
+    </row>
+    <row r="540" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D540" s="30"/>
+    </row>
+    <row r="541" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D541" s="30"/>
+    </row>
+    <row r="542" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D542" s="30"/>
+    </row>
+    <row r="543" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D543" s="30"/>
+    </row>
+    <row r="544" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D544" s="30"/>
+    </row>
+    <row r="545" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D545" s="30"/>
+    </row>
+    <row r="546" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D546" s="30"/>
+    </row>
+    <row r="547" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D547" s="30"/>
+    </row>
+    <row r="548" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D548" s="30"/>
+    </row>
+    <row r="549" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D549" s="30"/>
+    </row>
+    <row r="550" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D550" s="30"/>
+    </row>
+    <row r="551" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D551" s="30"/>
+    </row>
+    <row r="552" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D552" s="30"/>
+    </row>
+    <row r="553" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D553" s="30"/>
+    </row>
+    <row r="554" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D554" s="30"/>
+    </row>
+    <row r="555" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D555" s="30"/>
+    </row>
+    <row r="556" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D556" s="30"/>
+    </row>
+    <row r="557" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D557" s="30"/>
+    </row>
+    <row r="558" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D558" s="30"/>
+    </row>
+    <row r="559" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D559" s="30"/>
+    </row>
+    <row r="560" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D560" s="30"/>
+    </row>
+    <row r="561" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D561" s="30"/>
+    </row>
+    <row r="562" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D562" s="30"/>
+    </row>
+    <row r="563" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D563" s="30"/>
+    </row>
+    <row r="564" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D564" s="30"/>
+    </row>
+    <row r="565" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D565" s="30"/>
+    </row>
+    <row r="566" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D566" s="30"/>
+    </row>
+    <row r="567" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D567" s="30"/>
+    </row>
+    <row r="568" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D568" s="30"/>
+    </row>
+    <row r="569" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D569" s="30"/>
+    </row>
+    <row r="570" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D570" s="30"/>
+    </row>
+    <row r="571" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D571" s="30"/>
+    </row>
+    <row r="572" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D572" s="30"/>
+    </row>
+    <row r="573" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D573" s="30"/>
+    </row>
+    <row r="574" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D574" s="30"/>
+    </row>
+    <row r="575" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D575" s="30"/>
+    </row>
+    <row r="576" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D576" s="30"/>
+    </row>
+    <row r="577" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D577" s="30"/>
+    </row>
+    <row r="578" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D578" s="30"/>
+    </row>
+    <row r="579" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D579" s="30"/>
+    </row>
+    <row r="580" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D580" s="30"/>
+    </row>
+    <row r="581" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D581" s="30"/>
+    </row>
+    <row r="582" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D582" s="30"/>
+    </row>
+    <row r="583" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D583" s="30"/>
+    </row>
+    <row r="584" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D584" s="30"/>
+    </row>
+    <row r="585" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D585" s="30"/>
+    </row>
+    <row r="586" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D586" s="30"/>
+    </row>
+    <row r="587" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D587" s="30"/>
+    </row>
+    <row r="588" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D588" s="30"/>
+    </row>
+    <row r="589" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D589" s="30"/>
+    </row>
+    <row r="590" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D590" s="30"/>
+    </row>
+    <row r="591" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D591" s="30"/>
+    </row>
+    <row r="592" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D592" s="30"/>
+    </row>
+    <row r="593" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D593" s="30"/>
+    </row>
+    <row r="594" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D594" s="30"/>
+    </row>
+    <row r="595" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D595" s="30"/>
+    </row>
+    <row r="596" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D596" s="30"/>
+    </row>
+    <row r="597" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D597" s="30"/>
+    </row>
+    <row r="598" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D598" s="30"/>
+    </row>
+    <row r="599" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D599" s="30"/>
+    </row>
+    <row r="600" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D600" s="30"/>
+    </row>
+    <row r="601" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D601" s="30"/>
+    </row>
+    <row r="602" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D602" s="30"/>
+    </row>
+    <row r="603" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D603" s="30"/>
+    </row>
+    <row r="604" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D604" s="30"/>
+    </row>
+    <row r="605" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D605" s="30"/>
+    </row>
+    <row r="606" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D606" s="30"/>
+    </row>
+    <row r="607" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D607" s="30"/>
+    </row>
+    <row r="608" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D608" s="30"/>
+    </row>
+    <row r="609" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D609" s="30"/>
+    </row>
+    <row r="610" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D610" s="30"/>
+    </row>
+    <row r="611" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D611" s="30"/>
+    </row>
+    <row r="612" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D612" s="30"/>
+    </row>
+    <row r="613" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D613" s="30"/>
+    </row>
+    <row r="614" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D614" s="30"/>
+    </row>
+    <row r="615" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D615" s="30"/>
+    </row>
+    <row r="616" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D616" s="30"/>
+    </row>
+    <row r="617" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D617" s="30"/>
+    </row>
+    <row r="618" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D618" s="30"/>
+    </row>
+    <row r="619" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D619" s="30"/>
+    </row>
+    <row r="620" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D620" s="30"/>
+    </row>
+    <row r="621" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D621" s="30"/>
+    </row>
+    <row r="622" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D622" s="30"/>
+    </row>
+    <row r="623" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D623" s="30"/>
+    </row>
+    <row r="624" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D624" s="30"/>
+    </row>
+    <row r="625" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D625" s="30"/>
+    </row>
+    <row r="626" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D626" s="30"/>
+    </row>
+    <row r="627" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D627" s="30"/>
+    </row>
+    <row r="628" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D628" s="30"/>
+    </row>
+    <row r="629" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D629" s="30"/>
+    </row>
+    <row r="630" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D630" s="30"/>
+    </row>
+    <row r="631" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D631" s="30"/>
+    </row>
+    <row r="632" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D632" s="30"/>
+    </row>
+    <row r="633" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D633" s="30"/>
+    </row>
+    <row r="634" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D634" s="30"/>
+    </row>
+    <row r="635" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D635" s="30"/>
+    </row>
+    <row r="636" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D636" s="30"/>
+    </row>
+    <row r="637" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D637" s="30"/>
+    </row>
+    <row r="638" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D638" s="30"/>
+    </row>
+    <row r="639" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D639" s="30"/>
+    </row>
+    <row r="640" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D640" s="30"/>
+    </row>
+    <row r="641" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D641" s="30"/>
+    </row>
+    <row r="642" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D642" s="30"/>
+    </row>
+    <row r="643" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D643" s="30"/>
+    </row>
+    <row r="644" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D644" s="30"/>
+    </row>
+    <row r="645" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D645" s="30"/>
+    </row>
+    <row r="646" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D646" s="30"/>
+    </row>
+    <row r="647" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D647" s="30"/>
+    </row>
+    <row r="648" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D648" s="30"/>
+    </row>
+    <row r="649" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D649" s="30"/>
+    </row>
+    <row r="650" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D650" s="30"/>
+    </row>
+    <row r="651" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D651" s="30"/>
+    </row>
+    <row r="652" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D652" s="30"/>
+    </row>
+    <row r="653" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D653" s="30"/>
+    </row>
+    <row r="654" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D654" s="30"/>
+    </row>
+    <row r="655" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D655" s="30"/>
+    </row>
+    <row r="656" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D656" s="30"/>
+    </row>
+    <row r="657" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D657" s="30"/>
+    </row>
+    <row r="658" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D658" s="30"/>
+    </row>
+    <row r="659" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D659" s="30"/>
+    </row>
+    <row r="660" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D660" s="30"/>
+    </row>
+    <row r="661" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D661" s="30"/>
+    </row>
+    <row r="662" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D662" s="30"/>
+    </row>
+    <row r="663" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D663" s="30"/>
+    </row>
+    <row r="664" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D664" s="30"/>
+    </row>
+    <row r="665" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D665" s="30"/>
+    </row>
+    <row r="666" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D666" s="30"/>
+    </row>
+    <row r="667" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D667" s="30"/>
+    </row>
+    <row r="668" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D668" s="30"/>
+    </row>
+    <row r="669" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D669" s="30"/>
+    </row>
+    <row r="670" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D670" s="30"/>
+    </row>
+    <row r="671" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D671" s="30"/>
+    </row>
+    <row r="672" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D672" s="30"/>
+    </row>
+    <row r="673" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D673" s="30"/>
+    </row>
+    <row r="674" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D674" s="30"/>
+    </row>
+    <row r="675" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D675" s="30"/>
+    </row>
+    <row r="676" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D676" s="30"/>
+    </row>
+    <row r="677" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D677" s="30"/>
+    </row>
+    <row r="678" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D678" s="30"/>
+    </row>
+    <row r="679" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D679" s="30"/>
+    </row>
+    <row r="680" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D680" s="30"/>
+    </row>
+    <row r="681" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D681" s="30"/>
+    </row>
+    <row r="682" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D682" s="30"/>
+    </row>
+    <row r="683" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D683" s="30"/>
+    </row>
+    <row r="684" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D684" s="30"/>
+    </row>
+    <row r="685" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D685" s="30"/>
+    </row>
+    <row r="686" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D686" s="30"/>
+    </row>
+    <row r="687" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D687" s="30"/>
+    </row>
+    <row r="688" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D688" s="30"/>
+    </row>
+    <row r="689" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D689" s="30"/>
+    </row>
+    <row r="690" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D690" s="30"/>
+    </row>
+    <row r="691" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D691" s="30"/>
+    </row>
+    <row r="692" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D692" s="30"/>
+    </row>
+    <row r="693" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D693" s="30"/>
+    </row>
+    <row r="694" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D694" s="30"/>
+    </row>
+    <row r="695" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D695" s="30"/>
+    </row>
+    <row r="696" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D696" s="30"/>
+    </row>
+    <row r="697" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D697" s="30"/>
+    </row>
+    <row r="698" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D698" s="30"/>
+    </row>
+    <row r="699" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D699" s="30"/>
+    </row>
+    <row r="700" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D700" s="30"/>
+    </row>
+    <row r="701" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D701" s="30"/>
+    </row>
+    <row r="702" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D702" s="30"/>
+    </row>
+    <row r="703" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D703" s="30"/>
+    </row>
+    <row r="704" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D704" s="30"/>
+    </row>
+    <row r="705" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D705" s="30"/>
+    </row>
+    <row r="706" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D706" s="30"/>
+    </row>
+    <row r="707" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D707" s="30"/>
+    </row>
+    <row r="708" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D708" s="30"/>
+    </row>
+    <row r="709" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D709" s="30"/>
+    </row>
+    <row r="710" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D710" s="30"/>
+    </row>
+    <row r="711" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D711" s="30"/>
+    </row>
+    <row r="712" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D712" s="30"/>
+    </row>
+    <row r="713" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D713" s="30"/>
+    </row>
+    <row r="714" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D714" s="30"/>
+    </row>
+    <row r="715" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D715" s="30"/>
+    </row>
+    <row r="716" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D716" s="30"/>
+    </row>
+    <row r="717" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D717" s="30"/>
+    </row>
+    <row r="718" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D718" s="30"/>
+    </row>
+    <row r="719" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D719" s="30"/>
+    </row>
+    <row r="720" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D720" s="30"/>
+    </row>
+    <row r="721" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D721" s="30"/>
+    </row>
+    <row r="722" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D722" s="30"/>
+    </row>
+    <row r="723" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D723" s="30"/>
+    </row>
+    <row r="724" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D724" s="30"/>
+    </row>
+    <row r="725" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D725" s="30"/>
+    </row>
+    <row r="726" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D726" s="30"/>
+    </row>
+    <row r="727" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D727" s="30"/>
+    </row>
+    <row r="728" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D728" s="30"/>
+    </row>
+    <row r="729" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D729" s="30"/>
+    </row>
+    <row r="730" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D730" s="30"/>
+    </row>
+    <row r="731" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D731" s="30"/>
+    </row>
+    <row r="732" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D732" s="30"/>
+    </row>
+    <row r="733" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D733" s="30"/>
+    </row>
+    <row r="734" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D734" s="30"/>
+    </row>
+    <row r="735" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D735" s="30"/>
+    </row>
+    <row r="736" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D736" s="30"/>
+    </row>
+    <row r="737" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D737" s="30"/>
+    </row>
+    <row r="738" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D738" s="30"/>
+    </row>
+    <row r="739" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D739" s="30"/>
+    </row>
+    <row r="740" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D740" s="30"/>
+    </row>
+    <row r="741" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D741" s="30"/>
+    </row>
+    <row r="742" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D742" s="30"/>
+    </row>
+    <row r="743" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D743" s="30"/>
+    </row>
+    <row r="744" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D744" s="30"/>
+    </row>
+    <row r="745" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D745" s="30"/>
+    </row>
+    <row r="746" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D746" s="30"/>
+    </row>
+    <row r="747" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D747" s="30"/>
+    </row>
+    <row r="748" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D748" s="30"/>
+    </row>
+    <row r="749" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D749" s="30"/>
+    </row>
+    <row r="750" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D750" s="30"/>
+    </row>
+    <row r="751" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D751" s="30"/>
+    </row>
+    <row r="752" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D752" s="30"/>
+    </row>
+    <row r="753" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D753" s="30"/>
+    </row>
+    <row r="754" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D754" s="30"/>
+    </row>
+    <row r="755" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D755" s="30"/>
+    </row>
+    <row r="756" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D756" s="30"/>
+    </row>
+    <row r="757" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D757" s="30"/>
+    </row>
+    <row r="758" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D758" s="30"/>
+    </row>
+    <row r="759" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D759" s="30"/>
+    </row>
+    <row r="760" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D760" s="30"/>
+    </row>
+    <row r="761" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D761" s="30"/>
+    </row>
+    <row r="762" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D762" s="30"/>
+    </row>
+    <row r="763" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D763" s="30"/>
+    </row>
+    <row r="764" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D764" s="30"/>
+    </row>
+    <row r="765" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D765" s="30"/>
+    </row>
+    <row r="766" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D766" s="30"/>
+    </row>
+    <row r="767" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D767" s="30"/>
+    </row>
+    <row r="768" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D768" s="30"/>
+    </row>
+    <row r="769" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D769" s="30"/>
+    </row>
+    <row r="770" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D770" s="30"/>
+    </row>
+    <row r="771" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D771" s="30"/>
+    </row>
+    <row r="772" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D772" s="30"/>
+    </row>
+    <row r="773" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D773" s="30"/>
+    </row>
+    <row r="774" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D774" s="30"/>
+    </row>
+    <row r="775" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D775" s="30"/>
+    </row>
+    <row r="776" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D776" s="30"/>
+    </row>
+    <row r="777" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D777" s="30"/>
+    </row>
+    <row r="778" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D778" s="30"/>
+    </row>
+    <row r="779" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D779" s="30"/>
+    </row>
+    <row r="780" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D780" s="30"/>
+    </row>
+    <row r="781" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D781" s="30"/>
+    </row>
+    <row r="782" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D782" s="30"/>
+    </row>
+    <row r="783" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D783" s="30"/>
+    </row>
+    <row r="784" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D784" s="30"/>
+    </row>
+    <row r="785" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D785" s="30"/>
+    </row>
+    <row r="786" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D786" s="30"/>
+    </row>
+    <row r="787" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D787" s="30"/>
+    </row>
+    <row r="788" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D788" s="30"/>
+    </row>
+    <row r="789" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D789" s="30"/>
+    </row>
+    <row r="790" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D790" s="30"/>
+    </row>
+    <row r="791" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D791" s="30"/>
+    </row>
+    <row r="792" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D792" s="30"/>
+    </row>
+    <row r="793" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D793" s="30"/>
+    </row>
+    <row r="794" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D794" s="30"/>
+    </row>
+    <row r="795" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D795" s="30"/>
+    </row>
+    <row r="796" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D796" s="30"/>
+    </row>
+    <row r="797" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D797" s="30"/>
+    </row>
+    <row r="798" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D798" s="30"/>
+    </row>
+    <row r="799" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D799" s="30"/>
+    </row>
+    <row r="800" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D800" s="30"/>
+    </row>
+    <row r="801" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D801" s="30"/>
+    </row>
+    <row r="802" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D802" s="30"/>
+    </row>
+    <row r="803" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D803" s="30"/>
+    </row>
+    <row r="804" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D804" s="30"/>
+    </row>
+    <row r="805" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D805" s="30"/>
+    </row>
+    <row r="806" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D806" s="30"/>
+    </row>
+    <row r="807" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D807" s="30"/>
+    </row>
+    <row r="808" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D808" s="30"/>
+    </row>
+    <row r="809" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D809" s="30"/>
+    </row>
+    <row r="810" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D810" s="30"/>
+    </row>
+    <row r="811" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D811" s="30"/>
+    </row>
+    <row r="812" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D812" s="30"/>
+    </row>
+    <row r="813" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D813" s="30"/>
+    </row>
+    <row r="814" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D814" s="30"/>
+    </row>
+    <row r="815" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D815" s="30"/>
+    </row>
+    <row r="816" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D816" s="30"/>
+    </row>
+    <row r="817" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D817" s="30"/>
+    </row>
+    <row r="818" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D818" s="30"/>
+    </row>
+    <row r="819" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D819" s="30"/>
+    </row>
+    <row r="820" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D820" s="30"/>
+    </row>
+    <row r="821" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D821" s="30"/>
+    </row>
+    <row r="822" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D822" s="30"/>
+    </row>
+    <row r="823" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D823" s="30"/>
+    </row>
+    <row r="824" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D824" s="30"/>
+    </row>
+    <row r="825" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D825" s="30"/>
+    </row>
+    <row r="826" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D826" s="30"/>
+    </row>
+    <row r="827" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D827" s="30"/>
+    </row>
+    <row r="828" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D828" s="30"/>
+    </row>
+    <row r="829" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D829" s="30"/>
+    </row>
+    <row r="830" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D830" s="30"/>
+    </row>
+    <row r="831" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D831" s="30"/>
+    </row>
+    <row r="832" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D832" s="30"/>
+    </row>
+    <row r="833" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D833" s="30"/>
+    </row>
+    <row r="834" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D834" s="30"/>
+    </row>
+    <row r="835" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D835" s="30"/>
+    </row>
+    <row r="836" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D836" s="30"/>
+    </row>
+    <row r="837" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D837" s="30"/>
+    </row>
+    <row r="838" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D838" s="30"/>
+    </row>
+    <row r="839" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D839" s="30"/>
+    </row>
+    <row r="840" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D840" s="30"/>
+    </row>
+    <row r="841" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D841" s="30"/>
+    </row>
+    <row r="842" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D842" s="30"/>
+    </row>
+    <row r="843" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D843" s="30"/>
+    </row>
+    <row r="844" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D844" s="30"/>
+    </row>
+    <row r="845" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D845" s="30"/>
+    </row>
+    <row r="846" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D846" s="30"/>
+    </row>
+    <row r="847" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D847" s="30"/>
+    </row>
+    <row r="848" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D848" s="30"/>
+    </row>
+    <row r="849" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D849" s="30"/>
+    </row>
+    <row r="850" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D850" s="30"/>
+    </row>
+    <row r="851" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D851" s="30"/>
+    </row>
+    <row r="852" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D852" s="30"/>
+    </row>
+    <row r="853" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D853" s="30"/>
+    </row>
+    <row r="854" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D854" s="30"/>
+    </row>
+    <row r="855" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D855" s="30"/>
+    </row>
+    <row r="856" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D856" s="30"/>
+    </row>
+    <row r="857" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D857" s="30"/>
+    </row>
+    <row r="858" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D858" s="30"/>
+    </row>
+    <row r="859" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D859" s="30"/>
+    </row>
+    <row r="860" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D860" s="30"/>
+    </row>
+    <row r="861" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D861" s="30"/>
+    </row>
+    <row r="862" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D862" s="30"/>
+    </row>
+    <row r="863" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D863" s="30"/>
+    </row>
+    <row r="864" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D864" s="30"/>
+    </row>
+    <row r="865" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D865" s="30"/>
+    </row>
+    <row r="866" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D866" s="30"/>
+    </row>
+    <row r="867" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D867" s="30"/>
+    </row>
+    <row r="868" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D868" s="30"/>
+    </row>
+    <row r="869" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D869" s="30"/>
+    </row>
+    <row r="870" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D870" s="30"/>
+    </row>
+    <row r="871" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D871" s="30"/>
+    </row>
+    <row r="872" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D872" s="30"/>
+    </row>
+    <row r="873" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D873" s="30"/>
+    </row>
+    <row r="874" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D874" s="30"/>
+    </row>
+    <row r="875" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D875" s="30"/>
+    </row>
+    <row r="876" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D876" s="30"/>
+    </row>
+    <row r="877" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D877" s="30"/>
+    </row>
+    <row r="878" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D878" s="30"/>
+    </row>
+    <row r="879" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D879" s="30"/>
+    </row>
+    <row r="880" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D880" s="30"/>
+    </row>
+    <row r="881" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D881" s="30"/>
+    </row>
+    <row r="882" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D882" s="30"/>
+    </row>
+    <row r="883" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D883" s="30"/>
+    </row>
+    <row r="884" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D884" s="30"/>
+    </row>
+    <row r="885" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D885" s="30"/>
+    </row>
+    <row r="886" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D886" s="30"/>
+    </row>
+    <row r="887" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D887" s="30"/>
+    </row>
+    <row r="888" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D888" s="30"/>
+    </row>
+    <row r="889" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D889" s="30"/>
+    </row>
+    <row r="890" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D890" s="30"/>
+    </row>
+    <row r="891" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D891" s="30"/>
+    </row>
+    <row r="892" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D892" s="30"/>
+    </row>
+    <row r="893" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D893" s="30"/>
+    </row>
+    <row r="894" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D894" s="30"/>
+    </row>
+    <row r="895" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D895" s="30"/>
+    </row>
+    <row r="896" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D896" s="30"/>
+    </row>
+    <row r="897" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D897" s="30"/>
+    </row>
+    <row r="898" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D898" s="30"/>
+    </row>
+    <row r="899" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D899" s="30"/>
+    </row>
+    <row r="900" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D900" s="30"/>
+    </row>
+    <row r="901" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D901" s="30"/>
+    </row>
+    <row r="902" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D902" s="30"/>
+    </row>
+    <row r="903" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D903" s="30"/>
+    </row>
+    <row r="904" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D904" s="30"/>
+    </row>
+    <row r="905" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D905" s="30"/>
+    </row>
+    <row r="906" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D906" s="30"/>
+    </row>
+    <row r="907" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D907" s="30"/>
+    </row>
+    <row r="908" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D908" s="30"/>
+    </row>
+    <row r="909" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D909" s="30"/>
+    </row>
+    <row r="910" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D910" s="30"/>
+    </row>
+    <row r="911" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D911" s="30"/>
+    </row>
+    <row r="912" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D912" s="30"/>
+    </row>
+    <row r="913" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D913" s="30"/>
+    </row>
+    <row r="914" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D914" s="30"/>
+    </row>
+    <row r="915" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D915" s="30"/>
+    </row>
+    <row r="916" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D916" s="30"/>
+    </row>
+    <row r="917" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D917" s="30"/>
+    </row>
+    <row r="918" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D918" s="30"/>
+    </row>
+    <row r="919" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D919" s="30"/>
+    </row>
+    <row r="920" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D920" s="30"/>
+    </row>
+    <row r="921" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D921" s="30"/>
+    </row>
+    <row r="922" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D922" s="30"/>
+    </row>
+    <row r="923" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D923" s="30"/>
+    </row>
+    <row r="924" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D924" s="30"/>
+    </row>
+    <row r="925" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D925" s="30"/>
+    </row>
+    <row r="926" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D926" s="30"/>
+    </row>
+    <row r="927" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D927" s="30"/>
+    </row>
+    <row r="928" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D928" s="30"/>
+    </row>
+    <row r="929" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D929" s="30"/>
+    </row>
+    <row r="930" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D930" s="30"/>
+    </row>
+    <row r="931" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D931" s="30"/>
+    </row>
+    <row r="932" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D932" s="30"/>
+    </row>
+    <row r="933" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D933" s="30"/>
+    </row>
+    <row r="934" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D934" s="30"/>
+    </row>
+    <row r="935" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D935" s="30"/>
+    </row>
+    <row r="936" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D936" s="30"/>
+    </row>
+    <row r="937" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D937" s="30"/>
+    </row>
+    <row r="938" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D938" s="30"/>
+    </row>
+    <row r="939" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D939" s="30"/>
+    </row>
+    <row r="940" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D940" s="30"/>
+    </row>
+    <row r="941" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D941" s="30"/>
+    </row>
+    <row r="942" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D942" s="30"/>
+    </row>
+    <row r="943" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D943" s="30"/>
+    </row>
+    <row r="944" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D944" s="30"/>
+    </row>
+    <row r="945" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D945" s="30"/>
+    </row>
+    <row r="946" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D946" s="30"/>
+    </row>
+    <row r="947" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D947" s="30"/>
+    </row>
+    <row r="948" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D948" s="30"/>
+    </row>
+    <row r="949" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D949" s="30"/>
+    </row>
+    <row r="950" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D950" s="30"/>
+    </row>
+    <row r="951" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D951" s="30"/>
+    </row>
+    <row r="952" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D952" s="30"/>
+    </row>
+    <row r="953" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D953" s="30"/>
+    </row>
+    <row r="954" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D954" s="30"/>
+    </row>
+    <row r="955" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D955" s="30"/>
+    </row>
+    <row r="956" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D956" s="30"/>
+    </row>
+    <row r="957" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D957" s="30"/>
+    </row>
+    <row r="958" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D958" s="30"/>
+    </row>
+    <row r="959" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D959" s="30"/>
+    </row>
+    <row r="960" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D960" s="30"/>
+    </row>
+    <row r="961" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D961" s="30"/>
+    </row>
+    <row r="962" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D962" s="30"/>
+    </row>
+    <row r="963" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D963" s="30"/>
+    </row>
+    <row r="964" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D964" s="30"/>
+    </row>
+    <row r="965" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D965" s="30"/>
+    </row>
+    <row r="966" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D966" s="30"/>
+    </row>
+    <row r="967" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D967" s="30"/>
+    </row>
+    <row r="968" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D968" s="30"/>
+    </row>
+    <row r="969" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D969" s="30"/>
+    </row>
+    <row r="970" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D970" s="30"/>
+    </row>
+    <row r="971" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D971" s="30"/>
+    </row>
+    <row r="972" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D972" s="30"/>
+    </row>
+    <row r="973" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D973" s="30"/>
+    </row>
+    <row r="974" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D974" s="30"/>
+    </row>
+    <row r="975" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D975" s="30"/>
+    </row>
+    <row r="976" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D976" s="30"/>
+    </row>
+    <row r="977" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D977" s="30"/>
+    </row>
+    <row r="978" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D978" s="30"/>
+    </row>
+    <row r="979" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D979" s="30"/>
+    </row>
+    <row r="980" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D980" s="30"/>
+    </row>
+    <row r="981" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D981" s="30"/>
+    </row>
+    <row r="982" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D982" s="30"/>
+    </row>
+    <row r="983" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D983" s="30"/>
+    </row>
+    <row r="984" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D984" s="30"/>
+    </row>
+    <row r="985" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D985" s="30"/>
+    </row>
+    <row r="986" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D986" s="30"/>
+    </row>
+    <row r="987" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D987" s="30"/>
+    </row>
+    <row r="988" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D988" s="30"/>
+    </row>
+    <row r="989" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D989" s="30"/>
+    </row>
+    <row r="990" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D990" s="30"/>
+    </row>
+    <row r="991" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D991" s="30"/>
+    </row>
+    <row r="992" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D992" s="30"/>
+    </row>
+    <row r="993" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D993" s="30"/>
+    </row>
+    <row r="994" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D994" s="30"/>
+    </row>
+    <row r="995" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D995" s="30"/>
+    </row>
+    <row r="996" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D996" s="30"/>
+    </row>
+    <row r="997" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D997" s="30"/>
+    </row>
+    <row r="998" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D998" s="30"/>
+    </row>
+    <row r="999" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D999" s="30"/>
+    </row>
+    <row r="1000" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1000" s="30"/>
+    </row>
+    <row r="1001" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1001" s="30"/>
+    </row>
+    <row r="1002" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1002" s="30"/>
+    </row>
+    <row r="1003" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1003" s="30"/>
+    </row>
+    <row r="1004" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1004" s="30"/>
+    </row>
+    <row r="1005" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1005" s="30"/>
+    </row>
+    <row r="1006" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1006" s="30"/>
+    </row>
+    <row r="1007" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1007" s="30"/>
+    </row>
+    <row r="1008" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1008" s="30"/>
+    </row>
+    <row r="1009" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1009" s="30"/>
+    </row>
+    <row r="1010" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1010" s="30"/>
+    </row>
+    <row r="1011" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1011" s="30"/>
+    </row>
+    <row r="1012" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1012" s="30"/>
+    </row>
+    <row r="1013" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1013" s="30"/>
+    </row>
+    <row r="1014" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1014" s="30"/>
+    </row>
+    <row r="1015" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1015" s="30"/>
+    </row>
+    <row r="1016" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1016" s="30"/>
+    </row>
+    <row r="1017" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1017" s="30"/>
+    </row>
+    <row r="1018" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1018" s="30"/>
+    </row>
+    <row r="1019" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1019" s="30"/>
+    </row>
+    <row r="1020" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1020" s="30"/>
+    </row>
+    <row r="1021" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1021" s="30"/>
+    </row>
+    <row r="1022" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1022" s="30"/>
+    </row>
+    <row r="1023" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1023" s="30"/>
+    </row>
+    <row r="1024" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1024" s="30"/>
+    </row>
+    <row r="1025" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1025" s="30"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -3373,7 +5524,7 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A235" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A267" sqref="A267"/>
     </sheetView>
   </sheetViews>
@@ -3741,7 +5892,7 @@
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B25" s="23">
         <v>1</v>
@@ -3923,7 +6074,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B38" s="22">
         <v>8</v>
@@ -4021,7 +6172,7 @@
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B45" s="22">
         <v>1</v>
@@ -4147,7 +6298,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B54" s="22">
         <v>14</v>
@@ -4791,7 +6942,7 @@
     </row>
     <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B100" s="24">
         <v>1</v>
@@ -5407,7 +7558,7 @@
     </row>
     <row r="144" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B144" s="4">
         <v>3</v>
@@ -5477,7 +7628,7 @@
     </row>
     <row r="149" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B149" s="4">
         <v>1</v>
@@ -5673,7 +7824,7 @@
     </row>
     <row r="163" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B163" s="4">
         <v>1</v>
@@ -5925,7 +8076,7 @@
     </row>
     <row r="181" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B181" s="20">
         <v>4</v>
@@ -5939,7 +8090,7 @@
     </row>
     <row r="182" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B182" s="20">
         <v>4</v>
@@ -5953,7 +8104,7 @@
     </row>
     <row r="183" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B183" s="20">
         <v>2</v>
@@ -5967,7 +8118,7 @@
     </row>
     <row r="184" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B184" s="20">
         <v>1</v>
@@ -5981,7 +8132,7 @@
     </row>
     <row r="185" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B185" s="20">
         <v>4</v>
@@ -5995,7 +8146,7 @@
     </row>
     <row r="186" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B186" s="20">
         <v>4</v>
@@ -6009,7 +8160,7 @@
     </row>
     <row r="187" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B187" s="4">
         <v>5</v>
@@ -6023,7 +8174,7 @@
     </row>
     <row r="188" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B188" s="4">
         <v>16</v>
@@ -6037,7 +8188,7 @@
     </row>
     <row r="189" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B189" s="4">
         <v>8</v>
@@ -6051,7 +8202,7 @@
     </row>
     <row r="190" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="21" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B190" s="21">
         <v>7</v>
@@ -6065,7 +8216,7 @@
     </row>
     <row r="191" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B191" s="4">
         <v>1</v>
@@ -6079,7 +8230,7 @@
     </row>
     <row r="192" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B192" s="4">
         <v>1</v>
@@ -6093,7 +8244,7 @@
     </row>
     <row r="193" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B193" s="4">
         <v>1</v>
@@ -6107,7 +8258,7 @@
     </row>
     <row r="194" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B194" s="4">
         <v>8</v>
@@ -6121,7 +8272,7 @@
     </row>
     <row r="195" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B195" s="4">
         <v>1</v>
@@ -6135,7 +8286,7 @@
     </row>
     <row r="196" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B196" s="4">
         <v>1</v>
@@ -6149,7 +8300,7 @@
     </row>
     <row r="197" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B197" s="4">
         <v>12</v>
@@ -6163,7 +8314,7 @@
     </row>
     <row r="198" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B198" s="4">
         <v>1</v>
@@ -6177,7 +8328,7 @@
     </row>
     <row r="199" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B199" s="4">
         <v>4</v>
@@ -6191,7 +8342,7 @@
     </row>
     <row r="200" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B200" s="4">
         <v>5</v>
@@ -6205,7 +8356,7 @@
     </row>
     <row r="201" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B201" s="4">
         <v>1</v>
@@ -6219,7 +8370,7 @@
     </row>
     <row r="202" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B202" s="4">
         <v>1</v>
@@ -6233,7 +8384,7 @@
     </row>
     <row r="203" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B203" s="4">
         <v>3</v>
@@ -6247,7 +8398,7 @@
     </row>
     <row r="204" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B204" s="4">
         <v>3</v>
@@ -6261,7 +8412,7 @@
     </row>
     <row r="205" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B205" s="4">
         <v>8</v>
@@ -6275,7 +8426,7 @@
     </row>
     <row r="206" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B206" s="4">
         <v>4</v>
@@ -6289,7 +8440,7 @@
     </row>
     <row r="207" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B207" s="4">
         <v>1</v>
@@ -6303,7 +8454,7 @@
     </row>
     <row r="208" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B208" s="4">
         <v>4</v>
@@ -6317,7 +8468,7 @@
     </row>
     <row r="209" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B209" s="4">
         <v>1</v>
@@ -6331,7 +8482,7 @@
     </row>
     <row r="210" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B210" s="4">
         <v>4</v>
@@ -6345,7 +8496,7 @@
     </row>
     <row r="211" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B211" s="4">
         <v>8</v>
@@ -6359,7 +8510,7 @@
     </row>
     <row r="212" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B212" s="4">
         <v>2</v>
@@ -6373,7 +8524,7 @@
     </row>
     <row r="213" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B213" s="4">
         <v>3</v>
@@ -6387,7 +8538,7 @@
     </row>
     <row r="214" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B214" s="4">
         <v>4</v>
@@ -6401,7 +8552,7 @@
     </row>
     <row r="215" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B215" s="4">
         <v>4</v>
@@ -6415,7 +8566,7 @@
     </row>
     <row r="216" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B216" s="4">
         <v>3</v>
@@ -6429,7 +8580,7 @@
     </row>
     <row r="217" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B217" s="4">
         <v>3</v>
@@ -6443,7 +8594,7 @@
     </row>
     <row r="218" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B218" s="4">
         <v>1</v>
@@ -6457,7 +8608,7 @@
     </row>
     <row r="219" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B219" s="4">
         <v>1</v>
@@ -6471,7 +8622,7 @@
     </row>
     <row r="220" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B220" s="4">
         <v>6</v>
@@ -6485,7 +8636,7 @@
     </row>
     <row r="221" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B221" s="4">
         <v>4</v>
@@ -6499,7 +8650,7 @@
     </row>
     <row r="222" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B222" s="4">
         <v>12</v>
@@ -6513,7 +8664,7 @@
     </row>
     <row r="223" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B223" s="4">
         <v>7</v>
@@ -6527,7 +8678,7 @@
     </row>
     <row r="224" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B224" s="4">
         <v>4</v>
@@ -6541,7 +8692,7 @@
     </row>
     <row r="225" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B225" s="4">
         <v>3</v>
@@ -6555,7 +8706,7 @@
     </row>
     <row r="226" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B226" s="4">
         <v>3</v>
@@ -6569,7 +8720,7 @@
     </row>
     <row r="227" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B227" s="4">
         <v>6</v>
@@ -6583,7 +8734,7 @@
     </row>
     <row r="228" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B228" s="4">
         <v>1</v>
@@ -6597,7 +8748,7 @@
     </row>
     <row r="229" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B229" s="4">
         <v>1</v>
@@ -6611,7 +8762,7 @@
     </row>
     <row r="230" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B230" s="4">
         <v>1</v>
@@ -6625,7 +8776,7 @@
     </row>
     <row r="231" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B231" s="4">
         <v>6</v>
@@ -6639,7 +8790,7 @@
     </row>
     <row r="232" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B232" s="4">
         <v>13</v>
@@ -6653,7 +8804,7 @@
     </row>
     <row r="233" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B233" s="4">
         <v>1</v>
@@ -6667,7 +8818,7 @@
     </row>
     <row r="234" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B234" s="4">
         <v>1</v>
@@ -6681,7 +8832,7 @@
     </row>
     <row r="235" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B235" s="4">
         <v>1</v>
@@ -6695,7 +8846,7 @@
     </row>
     <row r="236" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B236" s="4">
         <v>1</v>
@@ -6709,7 +8860,7 @@
     </row>
     <row r="237" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B237" s="4">
         <v>1</v>
@@ -6723,7 +8874,7 @@
     </row>
     <row r="238" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B238" s="4">
         <v>1</v>
@@ -6737,7 +8888,7 @@
     </row>
     <row r="239" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B239" s="4">
         <v>1</v>
@@ -6751,7 +8902,7 @@
     </row>
     <row r="240" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B240" s="4">
         <v>1</v>
@@ -6765,7 +8916,7 @@
     </row>
     <row r="241" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B241" s="4">
         <v>1</v>
@@ -6779,7 +8930,7 @@
     </row>
     <row r="242" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B242" s="4">
         <v>1</v>
@@ -6793,7 +8944,7 @@
     </row>
     <row r="243" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B243" s="4">
         <v>1</v>
@@ -6807,7 +8958,7 @@
     </row>
     <row r="244" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B244" s="4">
         <v>1</v>
@@ -6821,7 +8972,7 @@
     </row>
     <row r="245" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B245" s="4">
         <v>1</v>
@@ -6835,7 +8986,7 @@
     </row>
     <row r="246" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B246" s="4">
         <v>1</v>
@@ -6849,7 +9000,7 @@
     </row>
     <row r="247" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B247" s="4">
         <v>1</v>
@@ -6863,7 +9014,7 @@
     </row>
     <row r="248" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B248" s="4">
         <v>1</v>
@@ -6877,7 +9028,7 @@
     </row>
     <row r="249" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B249" s="4">
         <v>5</v>
@@ -6891,7 +9042,7 @@
     </row>
     <row r="250" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B250" s="4">
         <v>4</v>
@@ -6905,7 +9056,7 @@
     </row>
     <row r="251" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B251" s="4">
         <v>1</v>
@@ -6919,7 +9070,7 @@
     </row>
     <row r="252" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B252" s="4">
         <v>1</v>
@@ -6933,7 +9084,7 @@
     </row>
     <row r="253" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B253" s="4">
         <v>1</v>
@@ -6947,7 +9098,7 @@
     </row>
     <row r="254" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B254" s="4">
         <v>1</v>
@@ -6961,7 +9112,7 @@
     </row>
     <row r="255" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B255" s="4">
         <v>5</v>
@@ -6975,7 +9126,7 @@
     </row>
     <row r="256" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B256" s="4">
         <v>7</v>
@@ -6989,7 +9140,7 @@
     </row>
     <row r="257" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B257" s="4">
         <v>2</v>
@@ -7003,7 +9154,7 @@
     </row>
     <row r="258" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B258" s="4">
         <v>4</v>
@@ -7017,7 +9168,7 @@
     </row>
     <row r="259" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B259" s="4">
         <v>1</v>
@@ -7031,7 +9182,7 @@
     </row>
     <row r="260" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B260" s="4">
         <v>1</v>
@@ -7045,7 +9196,7 @@
     </row>
     <row r="261" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B261" s="4">
         <v>1</v>
@@ -7059,7 +9210,7 @@
     </row>
     <row r="262" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B262" s="6"/>
       <c r="C262" s="6"/>
@@ -7826,7 +9977,7 @@
     <col min="4" max="4" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>225</v>
       </c>
@@ -7840,7 +9991,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>263</v>
       </c>
@@ -7854,7 +10005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>264</v>
       </c>
@@ -7868,7 +10019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>265</v>
       </c>
@@ -7882,7 +10033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>266</v>
       </c>
@@ -7896,7 +10047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>267</v>
       </c>
@@ -7912,7 +10063,7 @@
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -7937,7 +10088,7 @@
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>225</v>
       </c>
@@ -7951,7 +10102,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>228</v>
       </c>
@@ -7965,7 +10116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>229</v>
       </c>
@@ -7979,7 +10130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>230</v>
       </c>
@@ -7993,7 +10144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>231</v>
       </c>
@@ -8007,7 +10158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>232</v>
       </c>
@@ -8021,7 +10172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>233</v>
       </c>
@@ -8035,7 +10186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>234</v>
       </c>
@@ -8049,7 +10200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>235</v>
       </c>
@@ -8063,7 +10214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>236</v>
       </c>
@@ -8077,7 +10228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>237</v>
       </c>
@@ -8091,7 +10242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>238</v>
       </c>
@@ -8107,7 +10258,7 @@
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -8191,7 +10342,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9232,7 +11383,7 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -9246,7 +11397,7 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
@@ -9260,7 +11411,7 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -9274,7 +11425,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -9288,7 +11439,7 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -9302,7 +11453,7 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -9316,7 +11467,7 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10408,7 +12559,7 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -10618,7 +12769,7 @@
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B21" s="4">
         <v>1</v>
@@ -10646,7 +12797,7 @@
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11709,7 +13860,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/DynamicMarket.xlsx
+++ b/DynamicMarket.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Uni\WS21\kotlin\DynamicMarketKt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Personal\DynamicMarketKt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8055DDF4-28A2-4B7B-9C32-F6596F8B2846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DAA345-4C67-4BB1-A0FD-E6419C32DBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="9" r:id="rId1"/>
@@ -1850,8 +1850,8 @@
   </sheetPr>
   <dimension ref="A1:AL1025"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5524,8 +5524,8 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A267" sqref="A267"/>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="A263" sqref="A263:XFD263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12476,7 +12476,7 @@
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
